--- a/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
+++ b/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
@@ -8,7 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="notas" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="1-RL-teoria" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2-RL-practica" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="2-Recup" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="positivos" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="271">
   <si>
     <t xml:space="preserve">Teocra de circuitos</t>
   </si>
   <si>
+    <t xml:space="preserve">nro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apellido(s)</t>
   </si>
   <si>
@@ -272,15 +280,574 @@
   </si>
   <si>
     <t xml:space="preserve">lucianovel31@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-RL teoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-RL ejer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo requerido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/10,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  17:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  22:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  21:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 18 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 27 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  11:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  11:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 44 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  17:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  17:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 13 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 39 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 43 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 48 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  11:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  11:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  11:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  10:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  11:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 48 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 18 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 16 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 48 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  17:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  20:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  20:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  20:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 29 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  19:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  18:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 54 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  10:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  10:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  20:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 16 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  19:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 15 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  22:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 horas 31 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  15:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 26 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 14 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 48 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 de abril de 2025  08:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 horas 51 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 de mayo de 2025  19:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 días 3 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  15:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  23:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 horas 56 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 minutos 18 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  23:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 horas 45 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  23:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 25 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 3 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  23:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  22:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 horas 20 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  23:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 horas 25 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  22:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 2 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 de marzo de 2025  23:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 horas 50 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 minutos 35 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 de abril de 2025  17:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 días 2 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 minutos 44 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  22:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  21:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 de abril de 2025  18:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 días 3 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  20:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  23:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 horas 51 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 minutos 51 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 minutos 45 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 de abril de 2025  19:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 días 4 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/8,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  14:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  14:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  14:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de mayo de 2025  14:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 7 segundos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -306,12 +873,24 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB3B"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFEB3B"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -348,7 +927,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,6 +940,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,23 +965,83 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFEB3B"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,32 +1050,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="33.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="33.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -429,13 +1085,19 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>45782</v>
       </c>
+      <c r="F3" s="2" t="n">
+        <v>45796</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -443,13 +1105,19 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -457,13 +1125,19 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
+      <c r="A6" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -471,13 +1145,19 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+      <c r="A7" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -485,13 +1165,19 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>7</v>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
+      <c r="A8" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -499,13 +1185,19 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>7</v>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
+      <c r="A9" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -513,13 +1205,19 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>14</v>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
+      <c r="A10" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -527,13 +1225,19 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>7</v>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -541,13 +1245,19 @@
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>7</v>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
+      <c r="A12" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
@@ -555,13 +1265,19 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>7</v>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
+      <c r="A13" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -569,13 +1285,19 @@
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>7</v>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
+      <c r="A14" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -583,13 +1305,19 @@
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>7</v>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
+      <c r="A15" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -597,13 +1325,19 @@
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>7</v>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
+      <c r="A16" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>43</v>
@@ -611,13 +1345,19 @@
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>7</v>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
+      <c r="A17" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>46</v>
@@ -625,13 +1365,19 @@
       <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>7</v>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
+      <c r="A18" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -639,13 +1385,19 @@
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>7</v>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
+      <c r="A19" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>52</v>
@@ -653,13 +1405,19 @@
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>7</v>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
+      <c r="A20" s="0" t="n">
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>55</v>
@@ -667,13 +1425,19 @@
       <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>7</v>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>57</v>
+      <c r="A21" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>58</v>
@@ -681,13 +1445,19 @@
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>7</v>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
+      <c r="A22" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>61</v>
@@ -695,13 +1465,19 @@
       <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>7</v>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>63</v>
+      <c r="A23" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>64</v>
@@ -709,13 +1485,19 @@
       <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>14</v>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
+      <c r="A24" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>67</v>
@@ -723,13 +1505,19 @@
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>7</v>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
+      <c r="A25" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>70</v>
@@ -737,13 +1525,19 @@
       <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>7</v>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>72</v>
+      <c r="A26" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>73</v>
@@ -751,13 +1545,19 @@
       <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>7</v>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>75</v>
+      <c r="A27" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>76</v>
@@ -765,13 +1565,19 @@
       <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>7</v>
+      <c r="D27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>78</v>
+      <c r="A28" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>79</v>
@@ -779,13 +1585,19 @@
       <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>7</v>
+      <c r="D28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>81</v>
+      <c r="A29" s="0" t="n">
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>82</v>
@@ -793,14 +1605,24 @@
       <c r="C29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>7</v>
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="n">
-        <f aca="false">COUNTIF(D4:D29,"P")</f>
+      <c r="E30" s="0" t="n">
+        <f aca="false">COUNTIF(E4:E29,"P")</f>
         <v>23</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">COUNTIF(F4:F29,"P")</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -812,4 +1634,3499 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L27" activeCellId="1" sqref="F30 L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">E2+G2/2</f>
+        <v>10.5</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C2,H2),0)</f>
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f aca="false">IF(I2&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">E3+G3/2</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C3,H3),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f aca="false">IF(I3&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">E4+G4/2</f>
+        <v>9.5</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C4,H4),0)</f>
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f aca="false">IF(I4&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">E5+G5/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C5,H5),0)</f>
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f aca="false">IF(I5&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">E6+G6/2</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C6,H6),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f aca="false">IF(I6&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">E7+G7/2</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C7,H7),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f aca="false">IF(I7&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">E8+G8/2</f>
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C8,H8),0)</f>
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f aca="false">IF(I8&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">E9+G9/2</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C9,H9),0)</f>
+        <v>8</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f aca="false">IF(I9&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">E10+G10/2</f>
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C10,H10),0)</f>
+        <v>10</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f aca="false">IF(I10&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">E11+G11/2</f>
+        <v>7</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C11,H11),0)</f>
+        <v>7</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f aca="false">IF(I11&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">E12+G12/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C12,H12),0)</f>
+        <v>9</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f aca="false">IF(I12&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">E13+G13/2</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C13,H13),0)</f>
+        <v>10</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f aca="false">IF(I13&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">E14+G14/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C14,H14),0)</f>
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f aca="false">IF(I14&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">E15+G15/2</f>
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C15,H15),0)</f>
+        <v>8</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f aca="false">IF(I15&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">E16+G16/2</f>
+        <v>11</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C16,H16),0)</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f aca="false">IF(I16&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">E17+G17/2</f>
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C17,H17),0)</f>
+        <v>8</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f aca="false">IF(I17&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">E18+G18/2</f>
+        <v>9</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C18,H18),0)</f>
+        <v>10</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f aca="false">IF(I18&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">E19+G19/2</f>
+        <v>6</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C19,H19),0)</f>
+        <v>7</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f aca="false">IF(I19&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">E20+G20/2</f>
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C20,H20),0)</f>
+        <v>8</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f aca="false">IF(I20&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">E21+G21/2</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C21,H21),0)</f>
+        <v>5</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f aca="false">IF(I21&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">E22+G22/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C22,H22),0)</f>
+        <v>11</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f aca="false">IF(I22&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">E23+G23/2</f>
+        <v>13</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C23,H23),0)</f>
+        <v>11</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f aca="false">IF(I23&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">E24+G24/2</f>
+        <v>13</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C24,H24),0)</f>
+        <v>11</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f aca="false">IF(I24&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">E25+G25/2</f>
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C25,H25),0)</f>
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f aca="false">IF(I25&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">E26+G26/2</f>
+        <v>10</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C26,H26),0)</f>
+        <v>9</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f aca="false">IF(I26&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">E27+G27/2</f>
+        <v>7</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C27,H27),0)</f>
+        <v>7</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <f aca="false">IF(I27&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2:I27">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J27">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F30 G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.47"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">ROUND(MAX(H4,G4),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">AVERAGE(F6:F7)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">ROUND(MAX(H6,G6),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">AVERAGE(F10:F14)</f>
+        <v>5.8</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">ROUND(MAX(H10,G10),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">AVERAGE(F20:F21)</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">ROUND(MAX(H20,G20),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">AVERAGE(F22:F28)</f>
+        <v>7.57142857142857</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">ROUND(MAX(H22,G22),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">AVERAGE(F29:F30)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">ROUND(MAX(H29,G29),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">AVERAGE(F31:F36)</f>
+        <v>5.16666666666667</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">ROUND(MAX(H31,G31),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">AVERAGE(F38:F39)</f>
+        <v>7</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">ROUND(MAX(H38,G38),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">AVERAGE(F40:F41)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">ROUND(MAX(H40,G40),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">AVERAGE(F42:F45)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">ROUND(MAX(H42,G42),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">AVERAGE(F47:F51)</f>
+        <v>7.4</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">ROUND(MAX(H47,G47),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">AVERAGE(F52:F53)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <f aca="false">ROUND(MAX(H52,G52),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="F30 G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">AVERAGE(F2:F3)</f>
+        <v>8</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">ROUND(MAX(H2,G2),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">AVERAGE(F11:F12)</f>
+        <v>9</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">ROUND(MAX(H11,G11),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">AVERAGE(F18:F19)</f>
+        <v>9.5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">ROUND(MAX(H18,G18),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">AVERAGE(F28:F29)</f>
+        <v>6</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">ROUND(MAX(H28,G28),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">AVERAGE(F33:F34)</f>
+        <v>10</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">ROUND(MAX(H33,G33),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">AVERAGE(F38:F39)</f>
+        <v>9.5</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">ROUND(MAX(H38,G38),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">AVERAGE(F43:F44)</f>
+        <v>9.5</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">ROUND(MAX(H43,G43),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">AVERAGE(F46:F47)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <f aca="false">ROUND(MAX(H46,G46),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="F30 F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">AVERAGE(D2:D5)</f>
+        <v>7.25</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">ROUND(MAX(F2,E2),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F30 E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">SUM(C2:D2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">SUM(C3:D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">SUM(C4:D4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">SUM(C5:D5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">SUM(C6:D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">SUM(C7:D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">SUM(C8:D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">SUM(C9:D9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">SUM(C10:D10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">SUM(C11:D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">SUM(C12:D12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">SUM(C13:D13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">SUM(C14:D14)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">SUM(C15:D15)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">SUM(C16:D16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">SUM(C17:D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">SUM(C18:D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">SUM(C19:D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">SUM(C20:D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">SUM(C21:D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">SUM(C22:D22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">SUM(C23:D23)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">SUM(C24:D24)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">SUM(C25:D25)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">SUM(C26:D26)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">SUM(C27:D27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
+++ b/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="277">
   <si>
     <t xml:space="preserve">Teocra de circuitos</t>
   </si>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agasi</t>
   </si>
   <si>
@@ -54,6 +57,12 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se retiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANGELES</t>
   </si>
   <si>
@@ -72,9 +81,6 @@
     <t xml:space="preserve">48373431@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
     <t xml:space="preserve">BATTAGLIA</t>
   </si>
   <si>
@@ -165,6 +171,12 @@
     <t xml:space="preserve">48241663@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enfermedad</t>
+  </si>
+  <si>
     <t xml:space="preserve">GIRALDES MIRAVAL</t>
   </si>
   <si>
@@ -228,6 +240,9 @@
     <t xml:space="preserve">carlomontes06@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Se retiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rojas</t>
   </si>
   <si>
@@ -262,6 +277,9 @@
   </si>
   <si>
     <t xml:space="preserve">48183416@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enfermo</t>
   </si>
   <si>
     <t xml:space="preserve">VEGA</t>
@@ -927,7 +945,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -937,10 +955,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1050,17 +1064,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W30" activeCellId="0" sqref="W30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="33.12"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="3" style="0" width="33.12"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="5" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="17" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,25 +1110,112 @@
       <c r="F3" s="2" t="n">
         <v>45796</v>
       </c>
+      <c r="G3" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>45852</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,19 +1223,55 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,19 +1279,55 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,19 +1335,55 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,19 +1391,55 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,19 +1447,55 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,19 +1503,55 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,19 +1559,55 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,19 +1615,55 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,19 +1671,55 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,19 +1727,55 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,19 +1783,55 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,19 +1839,61 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,19 +1901,55 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,19 +1957,55 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,19 +2013,55 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,19 +2069,55 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,19 +2125,55 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,19 +2181,55 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,19 +2237,58 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,19 +2296,55 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,19 +2352,58 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,19 +2411,55 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,19 +2467,58 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,19 +2526,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,19 +2582,55 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,6 +2640,54 @@
       </c>
       <c r="F30" s="0" t="n">
         <f aca="false">COUNTIF(F4:F29,"P")</f>
+        <v>25</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">COUNTIF(G4:G29,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">COUNTIF(H4:H29,"P")</f>
+        <v>22</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">COUNTIF(J4:J29,"P")</f>
+        <v>25</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">COUNTIF(K4:K29,"P")</f>
+        <v>23</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <f aca="false">COUNTIF(M4:M29,"P")</f>
+        <v>23</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">COUNTIF(O4:O29,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">COUNTIF(P4:P29,"P")</f>
+        <v>18</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <f aca="false">COUNTIF(R4:R29,"P")</f>
+        <v>23</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <f aca="false">COUNTIF(S4:S29,"P")</f>
+        <v>24</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <f aca="false">COUNTIF(T4:T29,"P")</f>
+        <v>24</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <f aca="false">COUNTIF(U4:U29,"P")</f>
+        <v>25</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <f aca="false">COUNTIF(V4:V29,"P")</f>
         <v>25</v>
       </c>
     </row>
@@ -1643,11 +2709,11 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L27" activeCellId="1" sqref="F30 L27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
@@ -1661,28 +2727,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>7</v>
@@ -1709,7 +2775,7 @@
         <f aca="false">ROUND(AVERAGE(C2,H2),0)</f>
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="str">
+      <c r="J2" s="3" t="str">
         <f aca="false">IF(I2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1719,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -1738,7 +2804,7 @@
         <f aca="false">ROUND(AVERAGE(C3,H3),0)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="3" t="str">
         <f aca="false">IF(I3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1748,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -1767,7 +2833,7 @@
         <f aca="false">ROUND(AVERAGE(C4,H4),0)</f>
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <f aca="false">IF(I4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1777,7 +2843,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>9</v>
@@ -1796,7 +2862,7 @@
         <f aca="false">ROUND(AVERAGE(C5,H5),0)</f>
         <v>9</v>
       </c>
-      <c r="J5" s="4" t="str">
+      <c r="J5" s="3" t="str">
         <f aca="false">IF(I5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1806,7 +2872,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -1825,7 +2891,7 @@
         <f aca="false">ROUND(AVERAGE(C6,H6),0)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="3" t="str">
         <f aca="false">IF(I6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1835,7 +2901,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -1854,7 +2920,7 @@
         <f aca="false">ROUND(AVERAGE(C7,H7),0)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <f aca="false">IF(I7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -1864,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
@@ -1883,7 +2949,7 @@
         <f aca="false">ROUND(AVERAGE(C8,H8),0)</f>
         <v>8</v>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="3" t="str">
         <f aca="false">IF(I8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1893,7 +2959,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
@@ -1912,7 +2978,7 @@
         <f aca="false">ROUND(AVERAGE(C9,H9),0)</f>
         <v>8</v>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="3" t="str">
         <f aca="false">IF(I9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1922,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -1941,7 +3007,7 @@
         <f aca="false">ROUND(AVERAGE(C10,H10),0)</f>
         <v>10</v>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="3" t="str">
         <f aca="false">IF(I10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1951,15 +3017,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="4" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
@@ -1976,7 +3042,7 @@
         <f aca="false">ROUND(AVERAGE(C11,H11),0)</f>
         <v>7</v>
       </c>
-      <c r="J11" s="4" t="str">
+      <c r="J11" s="3" t="str">
         <f aca="false">IF(I11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -1986,26 +3052,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">E12+G12/2</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="I12" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C12,H12),0)</f>
-        <v>9</v>
-      </c>
-      <c r="J12" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3" t="str">
         <f aca="false">IF(I12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2015,26 +3081,26 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">E13+G13/2</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="I13" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C13,H13),0)</f>
         <v>10</v>
       </c>
-      <c r="J13" s="4" t="str">
+      <c r="J13" s="3" t="str">
         <f aca="false">IF(I13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2044,26 +3110,26 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">E14+G14/2</f>
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="I14" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C14,H14),0)</f>
-        <v>10</v>
-      </c>
-      <c r="J14" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="str">
         <f aca="false">IF(I14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2073,26 +3139,26 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">E15+G15/2</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I15" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C15,H15),0)</f>
-        <v>8</v>
-      </c>
-      <c r="J15" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="str">
         <f aca="false">IF(I15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2102,26 +3168,26 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">E16+G16/2</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I16" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C16,H16),0)</f>
-        <v>10</v>
-      </c>
-      <c r="J16" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="J16" s="3" t="str">
         <f aca="false">IF(I16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2131,26 +3197,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">E17+G17/2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C17,H17),0)</f>
-        <v>8</v>
-      </c>
-      <c r="J17" s="4" t="str">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="str">
         <f aca="false">IF(I17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2160,26 +3226,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">E18+G18/2</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I18" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C18,H18),0)</f>
-        <v>10</v>
-      </c>
-      <c r="J18" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="J18" s="3" t="str">
         <f aca="false">IF(I18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2189,26 +3255,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">E19+G19/2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I19" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C19,H19),0)</f>
-        <v>7</v>
-      </c>
-      <c r="J19" s="4" t="str">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3" t="str">
         <f aca="false">IF(I19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2218,28 +3284,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">E20+G20/2</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C20,H20),0)</f>
-        <v>8</v>
-      </c>
-      <c r="J20" s="4" t="str">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3" t="str">
         <f aca="false">IF(I20&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
+        <v>TEP</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,28 +3313,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">E21+G21/2</f>
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="I21" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C21,H21),0)</f>
-        <v>5</v>
-      </c>
-      <c r="J21" s="4" t="str">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3" t="str">
         <f aca="false">IF(I21&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,26 +3342,26 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">E22+G22/2</f>
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I22" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C22,H22),0)</f>
         <v>11</v>
       </c>
-      <c r="J22" s="4" t="str">
+      <c r="J22" s="3" t="str">
         <f aca="false">IF(I22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2305,26 +3371,26 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>19</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">E23+G23/2</f>
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="I23" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C23,H23),0)</f>
-        <v>11</v>
-      </c>
-      <c r="J23" s="4" t="str">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="str">
         <f aca="false">IF(I23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2334,26 +3400,26 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>21</v>
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">E24+G24/2</f>
-        <v>13</v>
+        <v>20.5</v>
       </c>
       <c r="I24" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C24,H24),0)</f>
-        <v>11</v>
-      </c>
-      <c r="J24" s="4" t="str">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3" t="str">
         <f aca="false">IF(I24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2363,26 +3429,26 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">E25+G25/2</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I25" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C25,H25),0)</f>
-        <v>13</v>
-      </c>
-      <c r="J25" s="4" t="str">
+        <v>9</v>
+      </c>
+      <c r="J25" s="3" t="str">
         <f aca="false">IF(I25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2392,26 +3458,26 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">E26+G26/2</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I26" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C26,H26),0)</f>
-        <v>9</v>
-      </c>
-      <c r="J26" s="4" t="str">
+        <v>7</v>
+      </c>
+      <c r="J26" s="3" t="str">
         <f aca="false">IF(I26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2421,26 +3487,26 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">E27+G27/2</f>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I27" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C27,H27),0)</f>
-        <v>7</v>
-      </c>
-      <c r="J27" s="4" t="str">
+        <v>9</v>
+      </c>
+      <c r="J27" s="3" t="str">
         <f aca="false">IF(I27&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2474,10 +3540,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F30 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.54"/>
@@ -2491,22 +3557,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,16 +3580,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -2537,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2551,16 +3617,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7</v>
@@ -2579,13 +3645,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2</v>
@@ -2596,16 +3662,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -2624,13 +3690,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7</v>
@@ -2641,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -2655,7 +3721,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -2669,16 +3735,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -2697,13 +3763,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -2711,13 +3777,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -2725,13 +3791,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>4</v>
@@ -2739,13 +3805,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -2756,21 +3822,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2779,21 +3845,21 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2802,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -2816,16 +3882,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -2839,16 +3905,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -2862,16 +3928,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -2890,13 +3956,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -2907,16 +3973,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -2935,13 +4001,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -2949,13 +4015,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -2963,13 +4029,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -2977,13 +4043,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -2991,13 +4057,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
@@ -3005,13 +4071,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>3</v>
@@ -3022,16 +4088,16 @@
         <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>9</v>
@@ -3050,13 +4116,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>6</v>
@@ -3067,16 +4133,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>9</v>
@@ -3095,13 +4161,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>8</v>
@@ -3109,13 +4175,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>6</v>
@@ -3123,13 +4189,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>4</v>
@@ -3137,13 +4203,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2</v>
@@ -3151,13 +4217,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
@@ -3168,16 +4234,16 @@
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>10</v>
@@ -3191,16 +4257,16 @@
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>9</v>
@@ -3219,13 +4285,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>5</v>
@@ -3236,16 +4302,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -3264,13 +4330,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>5</v>
@@ -3281,16 +4347,16 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -3309,13 +4375,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>8</v>
@@ -3323,13 +4389,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>8</v>
@@ -3337,13 +4403,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>4</v>
@@ -3354,21 +4420,21 @@
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I46" s="6" t="n">
+      <c r="I46" s="5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3377,16 +4443,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>10</v>
@@ -3405,13 +4471,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>9</v>
@@ -3419,13 +4485,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>9</v>
@@ -3433,13 +4499,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>5</v>
@@ -3447,13 +4513,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>4</v>
@@ -3464,16 +4530,16 @@
         <v>23</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>10</v>
@@ -3492,13 +4558,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>7</v>
@@ -3509,16 +4575,16 @@
         <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>10</v>
@@ -3532,16 +4598,16 @@
         <v>25</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>8</v>
@@ -3555,16 +4621,16 @@
         <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7</v>
@@ -3594,10 +4660,10 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="F30 G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -3610,22 +4676,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,16 +4699,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -3661,13 +4727,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -3678,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -3692,16 +4758,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -3715,16 +4781,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -3738,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3752,7 +4818,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3766,16 +4832,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -3789,16 +4855,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -3812,16 +4878,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -3840,13 +4906,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -3854,13 +4920,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -3868,13 +4934,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -3885,16 +4951,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -3908,16 +4974,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -3931,16 +4997,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -3954,16 +5020,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -3982,13 +5048,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -3996,13 +5062,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -4010,13 +5076,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -4024,13 +5090,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -4038,13 +5104,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -4055,16 +5121,16 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -4078,16 +5144,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -4101,16 +5167,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>8</v>
@@ -4124,16 +5190,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -4147,16 +5213,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -4175,13 +5241,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>6</v>
@@ -4189,13 +5255,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -4206,16 +5272,16 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>8</v>
@@ -4229,16 +5295,16 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -4252,16 +5318,16 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -4280,13 +5346,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -4294,13 +5360,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -4308,13 +5374,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>6</v>
@@ -4322,13 +5388,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
@@ -4339,16 +5405,16 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>10</v>
@@ -4367,13 +5433,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>9</v>
@@ -4381,13 +5447,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>8</v>
@@ -4395,13 +5461,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2</v>
@@ -4412,16 +5478,16 @@
         <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>9</v>
@@ -4435,16 +5501,16 @@
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>10</v>
@@ -4463,13 +5529,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>9</v>
@@ -4477,13 +5543,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>7</v>
@@ -4494,16 +5560,16 @@
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>9</v>
@@ -4522,13 +5588,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>6</v>
@@ -4539,16 +5605,16 @@
         <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7</v>
@@ -4589,10 +5655,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="F30 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -4603,33 +5669,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -4648,13 +5714,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -4662,13 +5728,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -4676,13 +5742,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -4706,11 +5772,11 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F30 E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -4730,7 +5796,7 @@
         <v>45775</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -4756,7 +5822,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">SUM(C3:D3)</f>
@@ -4768,7 +5834,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -4783,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
@@ -4801,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">SUM(C6:D6)</f>
@@ -4813,7 +5879,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">SUM(C7:D7)</f>
@@ -4825,7 +5891,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">SUM(C8:D8)</f>
@@ -4837,7 +5903,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -4852,7 +5918,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -4867,7 +5933,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">SUM(C11:D11)</f>
@@ -4879,7 +5945,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -4894,7 +5960,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -4912,7 +5978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -4930,7 +5996,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -4948,7 +6014,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2</v>
@@ -4963,7 +6029,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">SUM(C17:D17)</f>
@@ -4975,7 +6041,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">SUM(C18:D18)</f>
@@ -4987,7 +6053,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">SUM(C19:D19)</f>
@@ -4999,7 +6065,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">SUM(C20:D20)</f>
@@ -5011,7 +6077,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">SUM(C21:D21)</f>
@@ -5023,7 +6089,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -5041,7 +6107,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
@@ -5059,7 +6125,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>6</v>
@@ -5067,9 +6133,8 @@
       <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">SUM(C24:D24)</f>
-        <v>8</v>
+      <c r="E24" s="5" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,7 +6142,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>6</v>
@@ -5085,9 +6150,8 @@
       <c r="D25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">SUM(C25:D25)</f>
-        <v>10</v>
+      <c r="E25" s="5" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,7 +6159,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -5113,7 +6177,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">SUM(C27:D27)</f>

--- a/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
+++ b/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,9 @@
     <sheet name="2-RL-practica" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="2-Recup" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="positivos" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="3-RL paralelo" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="4-RC paralelo" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Evaluacion" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,11 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="341">
   <si>
     <t xml:space="preserve">Teocra de circuitos</t>
   </si>
   <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
     <t xml:space="preserve">nro</t>
   </si>
   <si>
@@ -45,6 +51,12 @@
     <t xml:space="preserve">obs</t>
   </si>
   <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nota</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agasi</t>
   </si>
   <si>
@@ -171,9 +183,6 @@
     <t xml:space="preserve">48241663@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
     <t xml:space="preserve">enfermedad</t>
   </si>
   <si>
@@ -321,6 +330,18 @@
     <t xml:space="preserve">valoracion</t>
   </si>
   <si>
+    <t xml:space="preserve">3-Rl paralelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Rc paralelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
@@ -856,6 +877,180 @@
   </si>
   <si>
     <t xml:space="preserve">7 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 51 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 minutos 35 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 26 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 51 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 36 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 23 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 56 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 31 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 21 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 35 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 26 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 27 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luciano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 minutos 2 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 minutos 50 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 minutos 26 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 minutos 33 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 minutos 39 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora 7 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 minutos 43 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 minutos 41 segundos</t>
   </si>
 </sst>
 </file>
@@ -891,12 +1086,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -945,7 +1146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -962,11 +1163,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -979,7 +1192,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF232629"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC107"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1007,7 +1279,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1041,7 +1313,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1064,19 +1336,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W30" activeCellId="0" sqref="W30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="3" style="0" width="33.12"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="5" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="5" style="0" width="8.62"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="17" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="23" min="18" style="0" width="8.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,19 +1363,25 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
+      <c r="X2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>45782</v>
@@ -1117,7 +1396,7 @@
         <v>45807</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>45810</v>
@@ -1126,13 +1405,13 @@
         <v>45814</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>45817</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" s="2" t="n">
         <v>45831</v>
@@ -1141,7 +1420,7 @@
         <v>45835</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>45838</v>
@@ -1158,64 +1437,84 @@
       <c r="V3" s="2" t="n">
         <v>45852</v>
       </c>
+      <c r="W3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>45856</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:V4,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <f aca="false">ROUND(W4*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,55 +1522,66 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:V5,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <f aca="false">ROUND(W5*10/$Y$2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,55 +1589,66 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:V6,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <f aca="false">ROUND(W6*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,55 +1656,66 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:V7,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <f aca="false">ROUND(W7*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,55 +1723,66 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:V8,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <f aca="false">ROUND(W8*10/$Y$2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,55 +1790,66 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:V9,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <f aca="false">ROUND(W9*10/$Y$2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,55 +1857,66 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:V10,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <f aca="false">ROUND(W10*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,55 +1924,66 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:V11,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <f aca="false">ROUND(W11*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,55 +1991,66 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:V12,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <f aca="false">ROUND(W12*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,55 +2058,66 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:V13,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <f aca="false">ROUND(W13*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,55 +2125,66 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:V14,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <f aca="false">ROUND(W14*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,55 +2192,66 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:V15,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <f aca="false">ROUND(W15*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,61 +2259,72 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:V16,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <f aca="false">ROUND(W16*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,55 +2332,66 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <f aca="false">COUNTIF(E17:V17,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <f aca="false">ROUND(W17*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,55 +2399,66 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <f aca="false">COUNTIF(E18:V18,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <f aca="false">ROUND(W18*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,55 +2466,66 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <f aca="false">COUNTIF(E19:V19,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <f aca="false">ROUND(W19*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,55 +2533,66 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <f aca="false">COUNTIF(E20:V20,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <f aca="false">ROUND(W20*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,55 +2600,66 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <f aca="false">COUNTIF(E21:V21,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <f aca="false">ROUND(W21*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,55 +2667,66 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <f aca="false">COUNTIF(E22:V22,"P")</f>
+        <v>13</v>
+      </c>
+      <c r="X22" s="3" t="n">
+        <f aca="false">ROUND(W22*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,58 +2734,69 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <f aca="false">COUNTIF(E23:V23,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <f aca="false">ROUND(W23*10/$Y$2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,55 +2804,66 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <f aca="false">COUNTIF(E24:V24,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X24" s="3" t="n">
+        <f aca="false">ROUND(W24*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,58 +2871,69 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <f aca="false">COUNTIF(E25:V25,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <f aca="false">ROUND(W25*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,55 +2941,66 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <f aca="false">COUNTIF(E26:V26,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X26" s="3" t="n">
+        <f aca="false">ROUND(W26*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,58 +3008,69 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <f aca="false">COUNTIF(E27:V27,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="X27" s="3" t="n">
+        <f aca="false">ROUND(W27*10/$Y$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,55 +3078,66 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <f aca="false">COUNTIF(E28:V28,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="X28" s="3" t="n">
+        <f aca="false">ROUND(W28*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,55 +3145,66 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <f aca="false">COUNTIF(E29:V29,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="X29" s="3" t="n">
+        <f aca="false">ROUND(W29*10/$Y$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,7 +3222,7 @@
       </c>
       <c r="H30" s="0" t="n">
         <f aca="false">COUNTIF(H4:H29,"P")</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J30" s="0" t="n">
         <f aca="false">COUNTIF(J4:J29,"P")</f>
@@ -2656,11 +3230,11 @@
       </c>
       <c r="K30" s="0" t="n">
         <f aca="false">COUNTIF(K4:K29,"P")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M30" s="0" t="n">
         <f aca="false">COUNTIF(M4:M29,"P")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O30" s="0" t="n">
         <f aca="false">COUNTIF(O4:O29,"P")</f>
@@ -2690,8 +3264,17 @@
         <f aca="false">COUNTIF(V4:V29,"P")</f>
         <v>25</v>
       </c>
+      <c r="Y30" s="0" t="n">
+        <f aca="false">COUNTIF(Y4:Y29,"P")</f>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="X4:X29">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2707,56 +3290,78 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q30" activeCellId="0" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16" min="3" style="0" width="9.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>7</v>
@@ -2765,27 +3370,43 @@
         <v>8</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">E2+G2/2</f>
-        <v>10.5</v>
-      </c>
-      <c r="I2" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C2,H2),0)</f>
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="str">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="str">
         <f aca="false">IF(I2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P2,O2,M2,K2,I2),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -2800,21 +3421,37 @@
         <f aca="false">E3+G3/2</f>
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C3,H3),0)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="4" t="str">
         <f aca="false">IF(I3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P3,O3,M3,K3,I3),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -2829,21 +3466,40 @@
         <f aca="false">E4+G4/2</f>
         <v>9.5</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C4,H4),0)</f>
         <v>7</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="4" t="str">
         <f aca="false">IF(I4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>45850</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>8.04</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P4,O4,M4,K4,I4),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>9</v>
@@ -2852,27 +3508,43 @@
         <v>7</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">E5+G5/2</f>
-        <v>8.5</v>
-      </c>
-      <c r="I5" s="3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C5,H5),0)</f>
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="str">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="str">
         <f aca="false">IF(I5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P5,O5,M5,K5,I5),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2887,21 +3559,37 @@
         <f aca="false">E6+G6/2</f>
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C6,H6),0)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="4" t="str">
         <f aca="false">IF(I6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P6,O6,M6,K6,I6),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2916,21 +3604,37 @@
         <f aca="false">E7+G7/2</f>
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C7,H7),0)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="4" t="str">
         <f aca="false">IF(I7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P7,O7,M7,K7,I7),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
@@ -2945,21 +3649,37 @@
         <f aca="false">E8+G8/2</f>
         <v>9</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C8,H8),0)</f>
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="J8" s="4" t="str">
         <f aca="false">IF(I8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P8,O8,M8,K8,I8),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
@@ -2968,27 +3688,43 @@
         <v>7</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">E9+G9/2</f>
-        <v>8</v>
-      </c>
-      <c r="I9" s="3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C9,H9),0)</f>
-        <v>8</v>
-      </c>
-      <c r="J9" s="3" t="str">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <f aca="false">IF(I9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P9,O9,M9,K9,I9),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -2997,35 +3733,51 @@
         <v>9</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H10" s="0" t="n">
         <f aca="false">E10+G10/2</f>
-        <v>10</v>
-      </c>
-      <c r="I10" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C10,H10),0)</f>
-        <v>10</v>
-      </c>
-      <c r="J10" s="3" t="str">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4" t="str">
         <f aca="false">IF(I10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P10,O10,M10,K10,I10),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
@@ -3038,488 +3790,768 @@
         <f aca="false">E11+G11/2</f>
         <v>7</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C11,H11),0)</f>
         <v>7</v>
       </c>
-      <c r="J11" s="3" t="str">
+      <c r="J11" s="4" t="str">
         <f aca="false">IF(I11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>45850</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P11,O11,M11,K11,I11),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">E12+G12/2</f>
-        <v>10</v>
-      </c>
-      <c r="I12" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C12,H12),0)</f>
-        <v>10</v>
-      </c>
-      <c r="J12" s="3" t="str">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <f aca="false">IF(I12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P12,O12,M12,K12,I12),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H13" s="0" t="n">
         <f aca="false">E13+G13/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="I13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C13,H13),0)</f>
-        <v>10</v>
-      </c>
-      <c r="J13" s="3" t="str">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4" t="str">
         <f aca="false">IF(I13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P13,O13,M13,K13,I13),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>6</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">E14+G14/2</f>
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C14,H14),0)</f>
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="str">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <f aca="false">IF(I14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P14,O14,M14,K14,I14),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">E15+G15/2</f>
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I15" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C15,H15),0)</f>
-        <v>10</v>
-      </c>
-      <c r="J15" s="3" t="str">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <f aca="false">IF(I15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P15,O15,M15,K15,I15),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">E16+G16/2</f>
-        <v>8</v>
-      </c>
-      <c r="I16" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C16,H16),0)</f>
-        <v>8</v>
-      </c>
-      <c r="J16" s="3" t="str">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <f aca="false">IF(I16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P16,O16,M16,K16,I16),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">E17+G17/2</f>
-        <v>9</v>
-      </c>
-      <c r="I17" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C17,H17),0)</f>
-        <v>10</v>
-      </c>
-      <c r="J17" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="J17" s="4" t="str">
         <f aca="false">IF(I17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P17,O17,M17,K17,I17),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">E18+G18/2</f>
-        <v>6</v>
-      </c>
-      <c r="I18" s="3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I18" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C18,H18),0)</f>
-        <v>7</v>
-      </c>
-      <c r="J18" s="3" t="str">
+        <v>11</v>
+      </c>
+      <c r="J18" s="4" t="str">
         <f aca="false">IF(I18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P18,O18,M18,K18,I18),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="0" t="n">
         <f aca="false">E19+G19/2</f>
-        <v>8</v>
-      </c>
-      <c r="I19" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C19,H19),0)</f>
         <v>8</v>
       </c>
-      <c r="J19" s="3" t="str">
+      <c r="J19" s="4" t="str">
         <f aca="false">IF(I19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P19,O19,M19,K19,I19),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">E20+G20/2</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C20,H20),0)</f>
-        <v>5</v>
-      </c>
-      <c r="J20" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4" t="str">
         <f aca="false">IF(I20&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEA</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P20,O20,M20,K20,I20),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">E21+G21/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="I21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C21,H21),0)</f>
-        <v>11</v>
-      </c>
-      <c r="J21" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4" t="str">
         <f aca="false">IF(I21&lt;7,"TEP","TEA")</f>
-        <v>TEA</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>TEP</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P21,O21,M21,K21,I21),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">E22+G22/2</f>
+        <v>15</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <f aca="false">ROUND(AVERAGE(C22,H22),0)</f>
         <v>13</v>
       </c>
-      <c r="I22" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C22,H22),0)</f>
-        <v>11</v>
-      </c>
-      <c r="J22" s="3" t="str">
+      <c r="J22" s="4" t="str">
         <f aca="false">IF(I22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P22,O22,M22,K22,I22),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">E23+G23/2</f>
-        <v>18.5</v>
-      </c>
-      <c r="I23" s="3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I23" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C23,H23),0)</f>
-        <v>14</v>
-      </c>
-      <c r="J23" s="3" t="str">
+        <v>12</v>
+      </c>
+      <c r="J23" s="4" t="str">
         <f aca="false">IF(I23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P23,O23,M23,K23,I23),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>37</v>
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">E24+G24/2</f>
-        <v>20.5</v>
-      </c>
-      <c r="I24" s="3" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I24" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C24,H24),0)</f>
-        <v>15</v>
-      </c>
-      <c r="J24" s="3" t="str">
+        <v>18</v>
+      </c>
+      <c r="J24" s="4" t="str">
         <f aca="false">IF(I24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P24,O24,M24,K24,I24),0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>34</v>
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">E25+G25/2</f>
-        <v>10</v>
-      </c>
-      <c r="I25" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I25" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C25,H25),0)</f>
-        <v>9</v>
-      </c>
-      <c r="J25" s="3" t="str">
+        <v>19</v>
+      </c>
+      <c r="J25" s="4" t="str">
         <f aca="false">IF(I25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P25,O25,M25,K25,I25),0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H26" s="0" t="n">
         <f aca="false">E26+G26/2</f>
-        <v>7</v>
-      </c>
-      <c r="I26" s="3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I26" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C26,H26),0)</f>
-        <v>7</v>
-      </c>
-      <c r="J26" s="3" t="str">
+        <v>10</v>
+      </c>
+      <c r="J26" s="4" t="str">
         <f aca="false">IF(I26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P26,O26,M26,K26,I26),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" s="0" t="n">
         <f aca="false">E27+G27/2</f>
-        <v>8.5</v>
-      </c>
-      <c r="I27" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I27" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C27,H27),0)</f>
-        <v>9</v>
-      </c>
-      <c r="J27" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="J27" s="4" t="str">
         <f aca="false">IF(I27&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="K27" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <v>45850</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(P27,O27,M27,K27,I27),0)</f>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I27">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>7</formula>
+  <conditionalFormatting sqref="Q2:Q27">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J27">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"TEP"</formula>
+    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>4</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3539,11 +4571,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.54"/>
@@ -3554,25 +4586,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,16 +4612,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -3603,7 +4635,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -3617,16 +4649,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7</v>
@@ -3645,13 +4677,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2</v>
@@ -3662,16 +4694,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -3690,13 +4722,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7</v>
@@ -3707,7 +4739,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3721,7 +4753,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -3735,16 +4767,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -3763,13 +4795,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -3777,13 +4809,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -3791,13 +4823,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>4</v>
@@ -3805,13 +4837,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -3822,21 +4854,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3845,21 +4877,21 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3868,7 +4900,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -3882,16 +4914,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -3905,16 +4937,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -3928,16 +4960,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -3956,13 +4988,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -3973,16 +5005,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -4001,13 +5033,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -4015,13 +5047,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -4029,13 +5061,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -4043,13 +5075,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -4057,13 +5089,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
@@ -4071,13 +5103,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>3</v>
@@ -4088,16 +5120,16 @@
         <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>9</v>
@@ -4116,13 +5148,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>6</v>
@@ -4133,16 +5165,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>9</v>
@@ -4161,13 +5193,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>8</v>
@@ -4175,13 +5207,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>6</v>
@@ -4189,13 +5221,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>4</v>
@@ -4203,13 +5235,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2</v>
@@ -4217,13 +5249,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
@@ -4234,16 +5266,16 @@
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>10</v>
@@ -4257,16 +5289,16 @@
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>9</v>
@@ -4285,13 +5317,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>5</v>
@@ -4302,16 +5334,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -4330,13 +5362,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>5</v>
@@ -4347,16 +5379,16 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -4375,13 +5407,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>8</v>
@@ -4389,13 +5421,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>8</v>
@@ -4403,13 +5435,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>4</v>
@@ -4420,21 +5452,21 @@
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I46" s="5" t="n">
+      <c r="I46" s="8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4443,16 +5475,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>10</v>
@@ -4471,13 +5503,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>9</v>
@@ -4485,13 +5517,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>9</v>
@@ -4499,13 +5531,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>5</v>
@@ -4513,13 +5545,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>4</v>
@@ -4530,16 +5562,16 @@
         <v>23</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>10</v>
@@ -4558,13 +5590,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>7</v>
@@ -4575,16 +5607,16 @@
         <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>10</v>
@@ -4598,16 +5630,16 @@
         <v>25</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>8</v>
@@ -4621,16 +5653,16 @@
         <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7</v>
@@ -4659,11 +5691,11 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -4673,25 +5705,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4699,16 +5731,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -4727,13 +5759,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -4744,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -4758,16 +5790,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -4781,16 +5813,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -4804,7 +5836,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -4818,7 +5850,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -4832,16 +5864,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -4855,16 +5887,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -4878,16 +5910,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -4906,13 +5938,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -4920,13 +5952,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -4934,13 +5966,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -4951,16 +5983,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -4974,16 +6006,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -4997,16 +6029,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -5020,16 +6052,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -5048,13 +6080,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -5062,13 +6094,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -5076,13 +6108,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -5090,13 +6122,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -5104,13 +6136,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -5121,16 +6153,16 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -5144,16 +6176,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -5167,16 +6199,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>8</v>
@@ -5190,16 +6222,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -5213,16 +6245,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -5241,13 +6273,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>6</v>
@@ -5255,13 +6287,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -5272,16 +6304,16 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>8</v>
@@ -5295,16 +6327,16 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -5318,16 +6350,16 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -5346,13 +6378,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -5360,13 +6392,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -5374,13 +6406,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>6</v>
@@ -5388,13 +6420,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
@@ -5405,16 +6437,16 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>10</v>
@@ -5433,13 +6465,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>9</v>
@@ -5447,13 +6479,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>8</v>
@@ -5461,13 +6493,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2</v>
@@ -5478,16 +6510,16 @@
         <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>9</v>
@@ -5501,16 +6533,16 @@
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>10</v>
@@ -5529,13 +6561,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>9</v>
@@ -5543,13 +6575,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>7</v>
@@ -5560,16 +6592,16 @@
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>9</v>
@@ -5588,13 +6620,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>6</v>
@@ -5605,16 +6637,16 @@
         <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7</v>
@@ -5654,11 +6686,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -5666,36 +6698,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -5714,13 +6746,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -5728,13 +6760,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -5742,13 +6774,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -5770,24 +6802,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1005" style="0" width="9.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="n">
         <v>45772</v>
@@ -5796,7 +6829,19 @@
         <v>45775</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -5816,31 +6861,46 @@
         <f aca="false">SUM(C2:D2)</f>
         <v>5</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">SUM(E2:H2)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">SUM(C3:D3)</f>
         <v>0</v>
       </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">SUM(E3:H3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">SUM(C4:D4)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">SUM(E4:H4)</f>
         <v>1</v>
       </c>
     </row>
@@ -5849,7 +6909,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
@@ -5861,49 +6921,68 @@
         <f aca="false">SUM(C5:D5)</f>
         <v>3</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">SUM(E5:H5)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">SUM(C6:D6)</f>
         <v>0</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">SUM(E6:H6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">SUM(C7:D7)</f>
         <v>0</v>
       </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">SUM(E7:H7)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">SUM(C8:D8)</f>
         <v>0</v>
       </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">SUM(E8:H8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -5912,13 +6991,20 @@
         <f aca="false">SUM(C9:D9)</f>
         <v>2</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">SUM(E9:H9)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -5927,25 +7013,39 @@
         <f aca="false">SUM(C10:D10)</f>
         <v>2</v>
       </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">SUM(E10:H10)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">SUM(C11:D11)</f>
         <v>0</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">SUM(E11:H11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -5954,13 +7054,17 @@
         <f aca="false">SUM(C12:D12)</f>
         <v>1</v>
       </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">SUM(E12:H12)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -5972,13 +7076,23 @@
         <f aca="false">SUM(C13:D13)</f>
         <v>4</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">SUM(E13:H13)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -5990,13 +7104,17 @@
         <f aca="false">SUM(C14:D14)</f>
         <v>5</v>
       </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">SUM(E14:H14)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -6008,13 +7126,20 @@
         <f aca="false">SUM(C15:D15)</f>
         <v>6</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">SUM(E15:H15)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2</v>
@@ -6023,73 +7148,103 @@
         <f aca="false">SUM(C16:D16)</f>
         <v>2</v>
       </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">SUM(E16:H16)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">SUM(C17:D17)</f>
         <v>0</v>
       </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">SUM(E17:H17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">SUM(C18:D18)</f>
         <v>0</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">SUM(E18:H18)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">SUM(C19:D19)</f>
         <v>0</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">SUM(E19:H19)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">SUM(C20:D20)</f>
         <v>0</v>
       </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">SUM(E20:H20)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">SUM(C21:D21)</f>
         <v>0</v>
       </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">SUM(E21:H21)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -6101,13 +7256,20 @@
         <f aca="false">SUM(C22:D22)</f>
         <v>5</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">SUM(E22:H22)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
@@ -6119,13 +7281,20 @@
         <f aca="false">SUM(C23:D23)</f>
         <v>6</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">SUM(E23:H23)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>6</v>
@@ -6133,8 +7302,21 @@
       <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="8" t="n">
         <v>19</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">SUM(E24:H24)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,7 +7324,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>6</v>
@@ -6150,8 +7332,18 @@
       <c r="D25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="8" t="n">
         <v>21</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">SUM(E25:H25)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6159,7 +7351,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -6171,17 +7363,1738 @@
         <f aca="false">SUM(C26:D26)</f>
         <v>4</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">SUM(E26:H26)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">SUM(C27:D27)</f>
         <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">SUM(E27:H27)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">AVERAGE(F18:F19)</f>
+        <v>9</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">ROUND(MAX(H18,G18),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">AVERAGE(F20:F23)</f>
+        <v>6</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">ROUND(MAX(H20,G20),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I31,"&gt;0")</f>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F27,"&gt;0")</f>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8.04</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>7.65</v>
       </c>
     </row>
   </sheetData>

--- a/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
+++ b/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="342">
   <si>
     <t xml:space="preserve">Teocra de circuitos</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t xml:space="preserve">Asistencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperacion agosto</t>
   </si>
   <si>
     <t xml:space="preserve">Finalizado</t>
@@ -1086,7 +1089,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,7 +1099,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC107"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9800"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9800"/>
+        <bgColor rgb="FFFFC107"/>
       </patternFill>
     </fill>
     <fill>
@@ -1146,7 +1155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1156,10 +1165,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,7 +1184,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1192,7 +1205,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -1204,42 +1217,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB3B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC107"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1314,7 +1291,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC107"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF9800"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1336,20 +1313,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z4" activeCellId="1" sqref="C:C Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="3" style="0" width="33.12"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="5" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="17" min="11" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="23" min="18" style="0" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="18" style="0" width="8.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,6 +1346,9 @@
       <c r="Y2" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="Z2" s="2" t="n">
+        <v>45887</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -1447,7 +1427,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -1516,8 +1496,11 @@
       <c r="Y4" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
@@ -1583,8 +1566,11 @@
       <c r="Y5" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
@@ -1650,8 +1636,11 @@
       <c r="Y6" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
@@ -1717,8 +1706,11 @@
       <c r="Y7" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
@@ -1784,8 +1776,11 @@
       <c r="Y8" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z8" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>6</v>
       </c>
@@ -1851,8 +1846,11 @@
       <c r="Y9" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
@@ -1918,8 +1916,11 @@
       <c r="Y10" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>8</v>
       </c>
@@ -1985,8 +1986,11 @@
       <c r="Y11" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>9</v>
       </c>
@@ -2052,8 +2056,11 @@
       <c r="Y12" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z12" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>10</v>
       </c>
@@ -2119,8 +2126,11 @@
       <c r="Y13" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>11</v>
       </c>
@@ -2186,8 +2196,11 @@
       <c r="Y14" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>12</v>
       </c>
@@ -2253,8 +2266,11 @@
       <c r="Y15" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>13</v>
       </c>
@@ -2326,8 +2342,11 @@
       <c r="Y16" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>14</v>
       </c>
@@ -2393,8 +2412,11 @@
       <c r="Y17" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>15</v>
       </c>
@@ -2460,8 +2482,11 @@
       <c r="Y18" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z18" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>16</v>
       </c>
@@ -2527,8 +2552,11 @@
       <c r="Y19" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>17</v>
       </c>
@@ -2594,8 +2622,11 @@
       <c r="Y20" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>18</v>
       </c>
@@ -2661,8 +2692,11 @@
       <c r="Y21" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>19</v>
       </c>
@@ -2728,8 +2762,11 @@
       <c r="Y22" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>20</v>
       </c>
@@ -2798,8 +2835,11 @@
       <c r="Y23" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z23" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>21</v>
       </c>
@@ -2865,8 +2905,11 @@
       <c r="Y24" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>22</v>
       </c>
@@ -2935,8 +2978,11 @@
       <c r="Y25" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z25" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>23</v>
       </c>
@@ -3002,8 +3048,11 @@
       <c r="Y26" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z26" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>24</v>
       </c>
@@ -3072,8 +3121,11 @@
       <c r="Y27" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z27" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>25</v>
       </c>
@@ -3139,8 +3191,11 @@
       <c r="Y28" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>26</v>
       </c>
@@ -3205,6 +3260,9 @@
       </c>
       <c r="Y29" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,6 +3325,10 @@
       <c r="Y30" s="0" t="n">
         <f aca="false">COUNTIF(Y4:Y29,"P")</f>
         <v>21</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <f aca="false">COUNTIF(Z4:Z29,"P")</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3290,17 +3352,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q30" activeCellId="0" sqref="Q30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16" min="3" style="0" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,8 +3417,17 @@
       <c r="Q1" s="0" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -3376,11 +3447,11 @@
         <f aca="false">E2+G2/2</f>
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C2,H2),0)</f>
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="str">
+      <c r="J2" s="3" t="str">
         <f aca="false">IF(I2&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3401,7 +3472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -3421,11 +3492,11 @@
         <f aca="false">E3+G3/2</f>
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C3,H3),0)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="3" t="str">
         <f aca="false">IF(I3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3445,8 +3516,14 @@
         <f aca="false">ROUND(AVERAGE(P3,O3,M3,K3,I3),0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -3466,22 +3543,25 @@
         <f aca="false">E4+G4/2</f>
         <v>9.5</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C4,H4),0)</f>
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="3" t="str">
         <f aca="false">IF(I4&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>45850</v>
       </c>
-      <c r="M4" s="0" t="n">
-        <v>1</v>
+      <c r="M4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>45816</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>8.04</v>
@@ -3491,10 +3571,16 @@
       </c>
       <c r="Q4" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(P4,O4,M4,K4,I4),0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -3514,11 +3600,11 @@
         <f aca="false">E5+G5/2</f>
         <v>11.5</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C5,H5),0)</f>
         <v>10</v>
       </c>
-      <c r="J5" s="4" t="str">
+      <c r="J5" s="3" t="str">
         <f aca="false">IF(I5&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3539,7 +3625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -3559,11 +3645,11 @@
         <f aca="false">E6+G6/2</f>
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C6,H6),0)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="3" t="str">
         <f aca="false">IF(I6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3583,8 +3669,14 @@
         <f aca="false">ROUND(AVERAGE(P6,O6,M6,K6,I6),0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -3604,11 +3696,11 @@
         <f aca="false">E7+G7/2</f>
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C7,H7),0)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="3" t="str">
         <f aca="false">IF(I7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -3628,8 +3720,14 @@
         <f aca="false">ROUND(AVERAGE(P7,O7,M7,K7,I7),0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -3649,11 +3747,11 @@
         <f aca="false">E8+G8/2</f>
         <v>9</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C8,H8),0)</f>
         <v>8</v>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="3" t="str">
         <f aca="false">IF(I8&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3674,7 +3772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -3694,11 +3792,11 @@
         <f aca="false">E9+G9/2</f>
         <v>10.5</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C9,H9),0)</f>
         <v>9</v>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="3" t="str">
         <f aca="false">IF(I9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3719,7 +3817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -3739,11 +3837,11 @@
         <f aca="false">E10+G10/2</f>
         <v>13</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C10,H10),0)</f>
         <v>11</v>
       </c>
-      <c r="J10" s="4" t="str">
+      <c r="J10" s="3" t="str">
         <f aca="false">IF(I10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3764,20 +3862,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="8" t="n">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>45783</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
@@ -3790,22 +3888,25 @@
         <f aca="false">E11+G11/2</f>
         <v>7</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C11,H11),0)</f>
         <v>7</v>
       </c>
-      <c r="J11" s="4" t="str">
+      <c r="J11" s="3" t="str">
         <f aca="false">IF(I11&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="K11" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>45850</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>1</v>
+      <c r="K11" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>45877</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>45877</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>5.69</v>
@@ -3815,10 +3916,19 @@
       </c>
       <c r="Q11" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(P11,O11,M11,K11,I11),0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>26</v>
       </c>
@@ -3838,11 +3948,11 @@
         <f aca="false">E12+G12/2</f>
         <v>8.5</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C12,H12),0)</f>
         <v>9</v>
       </c>
-      <c r="J12" s="4" t="str">
+      <c r="J12" s="3" t="str">
         <f aca="false">IF(I12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3863,7 +3973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
@@ -3883,11 +3993,11 @@
         <f aca="false">E13+G13/2</f>
         <v>12</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C13,H13),0)</f>
         <v>11</v>
       </c>
-      <c r="J13" s="4" t="str">
+      <c r="J13" s="3" t="str">
         <f aca="false">IF(I13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3908,7 +4018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
@@ -3928,11 +4038,11 @@
         <f aca="false">E14+G14/2</f>
         <v>12.5</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C14,H14),0)</f>
         <v>10</v>
       </c>
-      <c r="J14" s="4" t="str">
+      <c r="J14" s="3" t="str">
         <f aca="false">IF(I14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3953,7 +4063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
@@ -3973,11 +4083,11 @@
         <f aca="false">E15+G15/2</f>
         <v>10.5</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C15,H15),0)</f>
         <v>9</v>
       </c>
-      <c r="J15" s="4" t="str">
+      <c r="J15" s="3" t="str">
         <f aca="false">IF(I15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3998,7 +4108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
@@ -4018,19 +4128,25 @@
         <f aca="false">E16+G16/2</f>
         <v>11</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C16,H16),0)</f>
         <v>10</v>
       </c>
-      <c r="J16" s="4" t="str">
+      <c r="J16" s="3" t="str">
         <f aca="false">IF(I16&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>1</v>
+      <c r="K16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>45877</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>45877</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>9.61</v>
@@ -4040,10 +4156,19 @@
       </c>
       <c r="Q16" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(P16,O16,M16,K16,I16),0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
@@ -4063,11 +4188,11 @@
         <f aca="false">E17+G17/2</f>
         <v>8</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C17,H17),0)</f>
         <v>8</v>
       </c>
-      <c r="J17" s="4" t="str">
+      <c r="J17" s="3" t="str">
         <f aca="false">IF(I17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4088,7 +4213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
@@ -4108,11 +4233,11 @@
         <f aca="false">E18+G18/2</f>
         <v>11.5</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C18,H18),0)</f>
         <v>11</v>
       </c>
-      <c r="J18" s="4" t="str">
+      <c r="J18" s="3" t="str">
         <f aca="false">IF(I18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4133,7 +4258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
@@ -4153,11 +4278,11 @@
         <f aca="false">E19+G19/2</f>
         <v>8.5</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C19,H19),0)</f>
         <v>8</v>
       </c>
-      <c r="J19" s="4" t="str">
+      <c r="J19" s="3" t="str">
         <f aca="false">IF(I19&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4178,7 +4303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
@@ -4198,11 +4323,11 @@
         <f aca="false">E20+G20/2</f>
         <v>8</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C20,H20),0)</f>
         <v>8</v>
       </c>
-      <c r="J20" s="4" t="str">
+      <c r="J20" s="3" t="str">
         <f aca="false">IF(I20&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4223,7 +4348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
@@ -4243,11 +4368,11 @@
         <f aca="false">E21+G21/2</f>
         <v>1</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C21,H21),0)</f>
         <v>5</v>
       </c>
-      <c r="J21" s="4" t="str">
+      <c r="J21" s="3" t="str">
         <f aca="false">IF(I21&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -4267,8 +4392,14 @@
         <f aca="false">ROUND(AVERAGE(P21,O21,M21,K21,I21),0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
@@ -4288,11 +4419,11 @@
         <f aca="false">E22+G22/2</f>
         <v>15</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C22,H22),0)</f>
         <v>13</v>
       </c>
-      <c r="J22" s="4" t="str">
+      <c r="J22" s="3" t="str">
         <f aca="false">IF(I22&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4313,7 +4444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
@@ -4333,11 +4464,11 @@
         <f aca="false">E23+G23/2</f>
         <v>15.5</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C23,H23),0)</f>
         <v>12</v>
       </c>
-      <c r="J23" s="4" t="str">
+      <c r="J23" s="3" t="str">
         <f aca="false">IF(I23&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4358,7 +4489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
@@ -4371,18 +4502,18 @@
       <c r="E24" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="9" t="n">
         <v>37</v>
       </c>
       <c r="H24" s="0" t="n">
         <f aca="false">E24+G24/2</f>
         <v>27.5</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C24,H24),0)</f>
         <v>18</v>
       </c>
-      <c r="J24" s="4" t="str">
+      <c r="J24" s="3" t="str">
         <f aca="false">IF(I24&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4403,7 +4534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
@@ -4416,18 +4547,18 @@
       <c r="E25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="9" t="n">
         <v>34</v>
       </c>
       <c r="H25" s="0" t="n">
         <f aca="false">E25+G25/2</f>
         <v>27</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C25,H25),0)</f>
         <v>19</v>
       </c>
-      <c r="J25" s="4" t="str">
+      <c r="J25" s="3" t="str">
         <f aca="false">IF(I25&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4448,7 +4579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
@@ -4468,11 +4599,11 @@
         <f aca="false">E26+G26/2</f>
         <v>12.5</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C26,H26),0)</f>
         <v>10</v>
       </c>
-      <c r="J26" s="4" t="str">
+      <c r="J26" s="3" t="str">
         <f aca="false">IF(I26&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -4493,7 +4624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
@@ -4513,18 +4644,18 @@
         <f aca="false">E27+G27/2</f>
         <v>9.5</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="3" t="n">
         <f aca="false">ROUND(AVERAGE(C27,H27),0)</f>
         <v>8</v>
       </c>
-      <c r="J27" s="4" t="str">
+      <c r="J27" s="3" t="str">
         <f aca="false">IF(I27&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="L27" s="6" t="n">
+      <c r="L27" s="5" t="n">
         <v>45850</v>
       </c>
       <c r="M27" s="0" t="n">
@@ -4546,11 +4677,11 @@
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4569,13 +4700,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C:C G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.54"/>
@@ -4589,22 +4720,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>98</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,10 +4749,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -4655,10 +4786,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7</v>
@@ -4680,10 +4811,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2</v>
@@ -4700,10 +4831,10 @@
         <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -4725,10 +4856,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7</v>
@@ -4773,10 +4904,10 @@
         <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4798,10 +4929,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -4812,10 +4943,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -4826,10 +4957,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>4</v>
@@ -4840,10 +4971,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -4860,15 +4991,15 @@
         <v>33</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4883,15 +5014,15 @@
         <v>36</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4920,10 +5051,10 @@
         <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -4943,10 +5074,10 @@
         <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -4966,10 +5097,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -4991,10 +5122,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -5011,10 +5142,10 @@
         <v>52</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -5036,10 +5167,10 @@
         <v>52</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -5050,10 +5181,10 @@
         <v>52</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -5064,10 +5195,10 @@
         <v>52</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -5078,10 +5209,10 @@
         <v>52</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -5092,10 +5223,10 @@
         <v>52</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
@@ -5106,10 +5237,10 @@
         <v>52</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>3</v>
@@ -5126,10 +5257,10 @@
         <v>55</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>9</v>
@@ -5151,10 +5282,10 @@
         <v>55</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>6</v>
@@ -5171,10 +5302,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>9</v>
@@ -5196,10 +5327,10 @@
         <v>58</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>8</v>
@@ -5210,10 +5341,10 @@
         <v>58</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>6</v>
@@ -5224,10 +5355,10 @@
         <v>58</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>4</v>
@@ -5238,10 +5369,10 @@
         <v>58</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2</v>
@@ -5252,10 +5383,10 @@
         <v>58</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
@@ -5272,10 +5403,10 @@
         <v>61</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>10</v>
@@ -5295,10 +5426,10 @@
         <v>64</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>9</v>
@@ -5320,10 +5451,10 @@
         <v>64</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>5</v>
@@ -5340,10 +5471,10 @@
         <v>67</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -5365,10 +5496,10 @@
         <v>67</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>5</v>
@@ -5385,10 +5516,10 @@
         <v>70</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -5410,10 +5541,10 @@
         <v>70</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>8</v>
@@ -5424,10 +5555,10 @@
         <v>70</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>8</v>
@@ -5438,10 +5569,10 @@
         <v>70</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>4</v>
@@ -5458,15 +5589,15 @@
         <v>74</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I46" s="8" t="n">
+      <c r="I46" s="9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5481,10 +5612,10 @@
         <v>77</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>10</v>
@@ -5506,10 +5637,10 @@
         <v>77</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>9</v>
@@ -5520,10 +5651,10 @@
         <v>77</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>9</v>
@@ -5534,10 +5665,10 @@
         <v>77</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>5</v>
@@ -5548,10 +5679,10 @@
         <v>77</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>4</v>
@@ -5568,10 +5699,10 @@
         <v>80</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>10</v>
@@ -5593,10 +5724,10 @@
         <v>80</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>7</v>
@@ -5613,10 +5744,10 @@
         <v>83</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>10</v>
@@ -5636,10 +5767,10 @@
         <v>87</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>8</v>
@@ -5659,10 +5790,10 @@
         <v>90</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7</v>
@@ -5671,8 +5802,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5689,13 +5818,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="C:C G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -5708,22 +5837,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>98</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5737,10 +5866,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5762,10 +5891,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -5796,10 +5925,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -5819,10 +5948,10 @@
         <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -5870,10 +5999,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -5893,10 +6022,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -5916,10 +6045,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -5941,10 +6070,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -5955,10 +6084,10 @@
         <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -5969,10 +6098,10 @@
         <v>36</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -5989,10 +6118,10 @@
         <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -6012,10 +6141,10 @@
         <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -6035,10 +6164,10 @@
         <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -6058,10 +6187,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -6083,10 +6212,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -6097,10 +6226,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -6111,10 +6240,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6125,10 +6254,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -6139,10 +6268,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -6159,10 +6288,10 @@
         <v>52</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -6182,10 +6311,10 @@
         <v>55</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -6205,10 +6334,10 @@
         <v>58</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>8</v>
@@ -6228,10 +6357,10 @@
         <v>61</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -6251,10 +6380,10 @@
         <v>64</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -6276,10 +6405,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>6</v>
@@ -6290,10 +6419,10 @@
         <v>64</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -6310,10 +6439,10 @@
         <v>67</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>8</v>
@@ -6333,10 +6462,10 @@
         <v>70</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -6356,10 +6485,10 @@
         <v>74</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -6381,10 +6510,10 @@
         <v>74</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -6395,10 +6524,10 @@
         <v>74</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -6409,10 +6538,10 @@
         <v>74</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>6</v>
@@ -6423,10 +6552,10 @@
         <v>74</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
@@ -6443,10 +6572,10 @@
         <v>77</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>10</v>
@@ -6468,10 +6597,10 @@
         <v>77</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>9</v>
@@ -6482,10 +6611,10 @@
         <v>77</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>8</v>
@@ -6496,10 +6625,10 @@
         <v>77</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2</v>
@@ -6516,10 +6645,10 @@
         <v>80</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>9</v>
@@ -6539,10 +6668,10 @@
         <v>83</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>10</v>
@@ -6564,10 +6693,10 @@
         <v>83</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>9</v>
@@ -6578,10 +6707,10 @@
         <v>83</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>7</v>
@@ -6598,10 +6727,10 @@
         <v>87</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>9</v>
@@ -6623,10 +6752,10 @@
         <v>87</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>6</v>
@@ -6643,10 +6772,10 @@
         <v>90</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7</v>
@@ -6655,19 +6784,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6686,11 +6802,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C:C F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -6701,22 +6817,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>98</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,10 +6840,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -6749,10 +6865,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -6763,10 +6879,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -6777,10 +6893,10 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -6802,13 +6918,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J27" activeCellId="1" sqref="C:C J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -6843,6 +6959,9 @@
       <c r="I1" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="J1" s="2" t="n">
+        <v>45887</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -6944,6 +7063,9 @@
         <f aca="false">SUM(E6:H6)</f>
         <v>0</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -7023,6 +7145,9 @@
         <f aca="false">SUM(E10:H10)</f>
         <v>8</v>
       </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -7039,6 +7164,9 @@
         <f aca="false">SUM(E11:H11)</f>
         <v>0</v>
       </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -7152,6 +7280,9 @@
         <f aca="false">SUM(E16:H16)</f>
         <v>2</v>
       </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -7238,6 +7369,9 @@
         <f aca="false">SUM(E21:H21)</f>
         <v>0</v>
       </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -7302,7 +7436,7 @@
       <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="9" t="n">
         <v>19</v>
       </c>
       <c r="F24" s="0" t="n">
@@ -7332,7 +7466,7 @@
       <c r="D25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="9" t="n">
         <v>21</v>
       </c>
       <c r="F25" s="0" t="n">
@@ -7345,6 +7479,9 @@
         <f aca="false">SUM(E25:H25)</f>
         <v>34</v>
       </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -7388,6 +7525,9 @@
       <c r="I27" s="0" t="n">
         <f aca="false">SUM(E27:H27)</f>
         <v>5</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7408,11 +7548,11 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="1" sqref="C:C I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -7429,19 +7569,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>98</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7458,7 +7598,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -7509,7 +7649,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -7532,7 +7672,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -7555,7 +7695,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>8</v>
@@ -7578,7 +7718,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -7601,7 +7741,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -7624,7 +7764,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -7661,7 +7801,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -7684,7 +7824,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -7707,7 +7847,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
@@ -7730,7 +7870,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
@@ -7767,7 +7907,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -7790,7 +7930,7 @@
         <v>62</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -7815,7 +7955,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -7835,7 +7975,7 @@
         <v>65</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -7860,7 +8000,7 @@
         <v>65</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -7874,7 +8014,7 @@
         <v>65</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>5</v>
@@ -7888,7 +8028,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -7908,7 +8048,7 @@
         <v>68</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -7931,7 +8071,7 @@
         <v>71</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -7954,7 +8094,7 @@
         <v>75</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -7977,7 +8117,7 @@
         <v>78</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -8000,7 +8140,7 @@
         <v>81</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -8023,7 +8163,7 @@
         <v>84</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -8060,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="0" t="s">
         <v>1</v>
       </c>
@@ -8087,11 +8227,11 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="1" sqref="C:C F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
@@ -8107,10 +8247,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,7 +8300,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -8191,7 +8331,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -8211,7 +8351,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -8231,7 +8371,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -8251,7 +8391,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -8293,7 +8433,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -8313,7 +8453,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -8333,7 +8473,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -8364,7 +8504,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -8384,7 +8524,7 @@
         <v>62</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -8404,7 +8544,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -8424,7 +8564,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -8477,7 +8617,7 @@
         <v>81</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -8497,7 +8637,7 @@
         <v>84</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -8517,7 +8657,7 @@
         <v>88</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -8534,16 +8674,16 @@
         <v>90</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="0" t="s">
         <v>1</v>
       </c>
@@ -8570,11 +8710,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="C:C F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
@@ -8589,10 +8729,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8609,7 +8749,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -8629,7 +8769,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5.29</v>
@@ -8649,7 +8789,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.04</v>
@@ -8669,7 +8809,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5.49</v>
@@ -8700,7 +8840,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3.53</v>
@@ -8720,7 +8860,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7.84</v>
@@ -8740,7 +8880,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7.45</v>
@@ -8760,7 +8900,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -8780,7 +8920,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5.69</v>
@@ -8800,7 +8940,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7.84</v>
@@ -8820,7 +8960,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -8840,7 +8980,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8.43</v>
@@ -8860,7 +9000,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6.86</v>
@@ -8880,7 +9020,7 @@
         <v>56</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9.61</v>
@@ -8900,7 +9040,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7.45</v>
@@ -8931,7 +9071,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7.84</v>
@@ -8951,7 +9091,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8.24</v>
@@ -8971,7 +9111,7 @@
         <v>71</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>5.1</v>
@@ -8991,7 +9131,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8.82</v>
@@ -9011,7 +9151,7 @@
         <v>78</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9.02</v>
@@ -9031,7 +9171,7 @@
         <v>81</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -9051,7 +9191,7 @@
         <v>84</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -9071,7 +9211,7 @@
         <v>88</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -9088,10 +9228,10 @@
         <v>90</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>7.65</v>

--- a/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
+++ b/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="343">
   <si>
     <t xml:space="preserve">Teocra de circuitos</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">48373431@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tocando</t>
   </si>
   <si>
     <t xml:space="preserve">BATTAGLIA</t>
@@ -1313,13 +1316,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z4" activeCellId="1" sqref="C:C Z4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC30" activeCellId="0" sqref="AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -1346,9 +1349,6 @@
       <c r="Y2" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="Z2" s="2" t="n">
-        <v>45887</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -1426,6 +1426,21 @@
       <c r="Y3" s="2" t="n">
         <v>45856</v>
       </c>
+      <c r="Z3" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1498,6 +1513,15 @@
       </c>
       <c r="Z4" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,6 +1593,15 @@
       <c r="Z5" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1639,19 +1672,31 @@
       <c r="Z6" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>12</v>
@@ -1709,19 +1754,28 @@
       <c r="Z7" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>12</v>
@@ -1779,19 +1833,28 @@
       <c r="Z8" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AA8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>13</v>
@@ -1849,19 +1912,28 @@
       <c r="Z9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>12</v>
@@ -1919,19 +1991,28 @@
       <c r="Z10" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>12</v>
@@ -1989,19 +2070,28 @@
       <c r="Z11" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>12</v>
@@ -2059,19 +2149,28 @@
       <c r="Z12" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AA12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>12</v>
@@ -2127,6 +2226,15 @@
         <v>12</v>
       </c>
       <c r="Z13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2135,13 +2243,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>12</v>
@@ -2199,19 +2307,28 @@
       <c r="Z14" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>12</v>
@@ -2269,19 +2386,28 @@
       <c r="Z15" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>12</v>
@@ -2302,13 +2428,13 @@
         <v>12</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>12</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>12</v>
@@ -2345,19 +2471,28 @@
       <c r="Z16" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>12</v>
@@ -2415,19 +2550,28 @@
       <c r="Z17" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>12</v>
@@ -2483,6 +2627,15 @@
         <v>12</v>
       </c>
       <c r="Z18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2491,13 +2644,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>12</v>
@@ -2554,6 +2707,15 @@
       </c>
       <c r="Z19" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,13 +2723,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>12</v>
@@ -2624,6 +2786,15 @@
       </c>
       <c r="Z20" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,13 +2802,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>12</v>
@@ -2695,19 +2866,28 @@
       <c r="Z21" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>12</v>
@@ -2764,6 +2944,15 @@
       </c>
       <c r="Z22" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,13 +2960,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>13</v>
@@ -2792,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>12</v>
@@ -2838,19 +3027,28 @@
       <c r="Z23" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AA23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>12</v>
@@ -2908,19 +3106,28 @@
       <c r="Z24" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>12</v>
@@ -2944,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>12</v>
@@ -2981,19 +3188,28 @@
       <c r="Z25" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>12</v>
@@ -3051,19 +3267,28 @@
       <c r="Z26" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AA26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>12</v>
@@ -3078,7 +3303,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>12</v>
@@ -3124,19 +3349,28 @@
       <c r="Z27" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AA27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>12</v>
@@ -3193,6 +3427,15 @@
       </c>
       <c r="Z28" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,13 +3443,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>12</v>
@@ -3262,6 +3505,15 @@
         <v>13</v>
       </c>
       <c r="Z29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC29" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3329,6 +3581,18 @@
       <c r="Z30" s="0" t="n">
         <f aca="false">COUNTIF(Z4:Z29,"P")</f>
         <v>7</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <f aca="false">COUNTIF(AA4:AA29,"P")</f>
+        <v>23</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <f aca="false">COUNTIF(AB4:AB29,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <f aca="false">COUNTIF(AC4:AC29,"P")</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3354,11 +3618,11 @@
   </sheetPr>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
@@ -3373,49 +3637,49 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>6</v>
@@ -3574,7 +3838,7 @@
         <v>7</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>12</v>
@@ -3585,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>9</v>
@@ -3630,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3681,7 +3945,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -3732,7 +3996,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
@@ -3777,7 +4041,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
@@ -3822,7 +4086,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -3867,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>6</v>
@@ -3919,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>13</v>
@@ -3933,7 +4197,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10</v>
@@ -3978,7 +4242,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>9</v>
@@ -4023,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>8</v>
@@ -4068,7 +4332,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -4113,7 +4377,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>8</v>
@@ -4159,7 +4423,7 @@
         <v>7</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>13</v>
@@ -4173,7 +4437,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
@@ -4218,7 +4482,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>10</v>
@@ -4263,7 +4527,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>7</v>
@@ -4308,7 +4572,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>8</v>
@@ -4353,7 +4617,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>8</v>
@@ -4404,7 +4668,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>10</v>
@@ -4449,7 +4713,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>9</v>
@@ -4494,7 +4758,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>9</v>
@@ -4539,7 +4803,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>10</v>
@@ -4584,7 +4848,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>8</v>
@@ -4629,7 +4893,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>7</v>
@@ -4702,11 +4966,11 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C:C G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.54"/>
@@ -4720,22 +4984,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,10 +5013,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -4786,10 +5050,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7</v>
@@ -4811,10 +5075,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2</v>
@@ -4825,16 +5089,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -4853,13 +5117,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7</v>
@@ -4870,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -4884,7 +5148,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -4898,16 +5162,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4926,13 +5190,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -4940,13 +5204,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -4954,13 +5218,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>4</v>
@@ -4968,13 +5232,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -4985,16 +5249,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -5008,16 +5272,16 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -5031,7 +5295,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -5045,16 +5309,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -5068,16 +5332,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -5091,16 +5355,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -5119,13 +5383,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -5136,16 +5400,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -5164,13 +5428,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -5178,13 +5442,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -5192,13 +5456,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -5206,13 +5470,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -5220,13 +5484,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
@@ -5234,13 +5498,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>3</v>
@@ -5251,16 +5515,16 @@
         <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>9</v>
@@ -5279,13 +5543,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>6</v>
@@ -5296,16 +5560,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>9</v>
@@ -5324,13 +5588,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>8</v>
@@ -5338,13 +5602,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>6</v>
@@ -5352,13 +5616,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>4</v>
@@ -5366,13 +5630,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2</v>
@@ -5380,13 +5644,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
@@ -5397,16 +5661,16 @@
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>10</v>
@@ -5420,16 +5684,16 @@
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>9</v>
@@ -5448,13 +5712,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>5</v>
@@ -5465,16 +5729,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -5493,13 +5757,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>5</v>
@@ -5510,16 +5774,16 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -5538,13 +5802,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>8</v>
@@ -5552,13 +5816,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>8</v>
@@ -5566,13 +5830,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>4</v>
@@ -5583,16 +5847,16 @@
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>10</v>
@@ -5606,16 +5870,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>10</v>
@@ -5634,13 +5898,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>9</v>
@@ -5648,13 +5912,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>9</v>
@@ -5662,13 +5926,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>5</v>
@@ -5676,13 +5940,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>4</v>
@@ -5693,16 +5957,16 @@
         <v>23</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>10</v>
@@ -5721,13 +5985,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>7</v>
@@ -5738,16 +6002,16 @@
         <v>24</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>10</v>
@@ -5761,16 +6025,16 @@
         <v>25</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>8</v>
@@ -5784,16 +6048,16 @@
         <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7</v>
@@ -5820,11 +6084,11 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="C:C G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -5837,22 +6101,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5866,10 +6130,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -5891,10 +6155,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -5925,10 +6189,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -5942,16 +6206,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -5965,7 +6229,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -5979,7 +6243,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -5993,16 +6257,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -6016,16 +6280,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -6039,16 +6303,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -6067,13 +6331,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -6081,13 +6345,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6095,13 +6359,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -6112,16 +6376,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -6135,16 +6399,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -6158,16 +6422,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -6181,16 +6445,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -6209,13 +6473,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -6223,13 +6487,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -6237,13 +6501,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6251,13 +6515,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -6265,13 +6529,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -6282,16 +6546,16 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -6305,16 +6569,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -6328,16 +6592,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>8</v>
@@ -6351,16 +6615,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -6374,16 +6638,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -6402,13 +6666,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>6</v>
@@ -6416,13 +6680,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -6433,16 +6697,16 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>8</v>
@@ -6456,16 +6720,16 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -6479,16 +6743,16 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -6507,13 +6771,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -6521,13 +6785,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -6535,13 +6799,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>6</v>
@@ -6549,13 +6813,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
@@ -6566,16 +6830,16 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>10</v>
@@ -6594,13 +6858,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>9</v>
@@ -6608,13 +6872,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>8</v>
@@ -6622,13 +6886,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2</v>
@@ -6639,16 +6903,16 @@
         <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>9</v>
@@ -6662,16 +6926,16 @@
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>10</v>
@@ -6690,13 +6954,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>9</v>
@@ -6704,13 +6968,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>7</v>
@@ -6721,16 +6985,16 @@
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>9</v>
@@ -6749,13 +7013,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>6</v>
@@ -6766,16 +7030,16 @@
         <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7</v>
@@ -6802,11 +7066,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C:C F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -6817,33 +7081,33 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -6862,13 +7126,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -6876,13 +7140,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -6890,13 +7154,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -6918,16 +7182,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="1" sqref="C:C J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="3" style="0" width="9.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1005" style="0" width="9.33"/>
   </cols>
   <sheetData>
@@ -6945,7 +7210,7 @@
         <v>45775</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="n">
         <v>45835</v>
@@ -6957,10 +7222,13 @@
         <v>45817</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J1" s="2" t="n">
         <v>45887</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45901</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7028,7 +7296,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
@@ -7053,7 +7321,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">SUM(C6:D6)</f>
@@ -7072,7 +7340,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">SUM(C7:D7)</f>
@@ -7088,7 +7356,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">SUM(C8:D8)</f>
@@ -7104,7 +7372,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -7126,7 +7394,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2</v>
@@ -7154,7 +7422,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">SUM(C11:D11)</f>
@@ -7173,7 +7441,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -7192,7 +7460,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -7220,7 +7488,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -7242,7 +7510,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -7261,13 +7529,16 @@
         <f aca="false">SUM(E15:H15)</f>
         <v>11</v>
       </c>
+      <c r="K15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2</v>
@@ -7289,7 +7560,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">SUM(C17:D17)</f>
@@ -7305,7 +7576,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="false">SUM(C18:D18)</f>
@@ -7324,7 +7595,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">SUM(C19:D19)</f>
@@ -7343,7 +7614,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="false">SUM(C20:D20)</f>
@@ -7359,7 +7630,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">SUM(C21:D21)</f>
@@ -7378,7 +7649,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -7403,7 +7674,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
@@ -7428,7 +7699,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>6</v>
@@ -7452,13 +7723,16 @@
         <f aca="false">SUM(E24:H24)</f>
         <v>37</v>
       </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>6</v>
@@ -7488,7 +7762,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -7513,7 +7787,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">SUM(C27:D27)</f>
@@ -7548,11 +7822,11 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="1" sqref="C:C I31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -7569,19 +7843,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,7 +7872,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -7640,16 +7914,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -7663,16 +7937,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -7686,16 +7960,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>8</v>
@@ -7709,16 +7983,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -7732,16 +8006,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -7755,16 +8029,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -7778,7 +8052,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -7792,16 +8066,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -7815,16 +8089,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -7838,16 +8112,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
@@ -7861,16 +8135,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
@@ -7884,7 +8158,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -7898,16 +8172,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -7921,16 +8195,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -7949,13 +8223,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -7966,16 +8240,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -7994,13 +8268,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -8008,13 +8282,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>5</v>
@@ -8022,13 +8296,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -8039,16 +8313,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -8062,16 +8336,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -8085,16 +8359,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -8108,16 +8382,16 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -8131,16 +8405,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -8154,16 +8428,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -8177,7 +8451,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -8191,7 +8465,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -8227,11 +8501,11 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="1" sqref="C:C F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
@@ -8247,10 +8521,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8291,16 +8565,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -8311,7 +8585,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -8322,16 +8596,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -8342,16 +8616,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -8362,16 +8636,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -8382,16 +8656,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -8402,7 +8676,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -8413,7 +8687,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -8424,16 +8698,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -8444,16 +8718,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -8464,16 +8738,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -8484,7 +8758,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -8495,16 +8769,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -8515,16 +8789,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -8535,16 +8809,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -8555,16 +8829,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -8575,7 +8849,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -8586,7 +8860,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -8597,7 +8871,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -8608,16 +8882,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -8628,16 +8902,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -8648,16 +8922,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -8668,16 +8942,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -8710,11 +8984,11 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="C:C F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
@@ -8729,10 +9003,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8749,7 +9023,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -8769,7 +9043,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5.29</v>
@@ -8789,7 +9063,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.04</v>
@@ -8800,16 +9074,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5.49</v>
@@ -8820,7 +9094,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -8831,16 +9105,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3.53</v>
@@ -8851,16 +9125,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7.84</v>
@@ -8871,16 +9145,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7.45</v>
@@ -8891,16 +9165,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -8911,16 +9185,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5.69</v>
@@ -8931,16 +9205,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7.84</v>
@@ -8951,16 +9225,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -8971,16 +9245,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8.43</v>
@@ -8991,16 +9265,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6.86</v>
@@ -9011,16 +9285,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9.61</v>
@@ -9031,16 +9305,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7.45</v>
@@ -9051,7 +9325,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -9062,16 +9336,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7.84</v>
@@ -9082,16 +9356,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8.24</v>
@@ -9102,16 +9376,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>5.1</v>
@@ -9122,16 +9396,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8.82</v>
@@ -9142,16 +9416,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9.02</v>
@@ -9162,16 +9436,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -9182,16 +9456,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -9202,16 +9476,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -9222,16 +9496,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>7.65</v>

--- a/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
+++ b/inasistencias-6A-Tc/Alumnos-6A-Tc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="344">
   <si>
     <t xml:space="preserve">Teocra de circuitos</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t xml:space="preserve">enfermo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
   </si>
   <si>
     <t xml:space="preserve">VEGA</t>
@@ -1316,13 +1319,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC30" activeCellId="0" sqref="AC30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE30" activeCellId="0" sqref="AE30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -1441,6 +1444,12 @@
       <c r="AD3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="AE3" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>45915</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1521,6 +1530,12 @@
         <v>12</v>
       </c>
       <c r="AC4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1602,6 +1617,12 @@
       <c r="AC5" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1684,6 +1705,12 @@
       <c r="AD6" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="AE6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1763,6 +1790,12 @@
       <c r="AC7" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1842,6 +1875,12 @@
       <c r="AC8" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1921,6 +1960,12 @@
       <c r="AC9" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2000,6 +2045,12 @@
       <c r="AC10" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2079,6 +2130,12 @@
       <c r="AC11" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2158,6 +2215,12 @@
       <c r="AC12" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2235,6 +2298,12 @@
         <v>12</v>
       </c>
       <c r="AC13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2316,6 +2385,12 @@
       <c r="AC14" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2393,6 +2468,12 @@
         <v>12</v>
       </c>
       <c r="AC15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2480,6 +2561,12 @@
       <c r="AC16" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2559,6 +2646,12 @@
       <c r="AC17" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2638,6 +2731,12 @@
       <c r="AC18" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2717,6 +2816,12 @@
       <c r="AC19" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2796,6 +2901,12 @@
       <c r="AC20" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF20" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2875,6 +2986,12 @@
       <c r="AC21" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF21" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2954,6 +3071,12 @@
       <c r="AC22" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -3036,6 +3159,12 @@
       <c r="AC23" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -3115,6 +3244,12 @@
       <c r="AC24" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -3197,6 +3332,12 @@
       <c r="AC25" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF25" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -3276,6 +3417,12 @@
       <c r="AC26" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="AE26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF26" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -3358,19 +3505,25 @@
       <c r="AC27" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AE27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>12</v>
@@ -3435,6 +3588,12 @@
         <v>12</v>
       </c>
       <c r="AC28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF28" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3443,13 +3602,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>12</v>
@@ -3514,6 +3673,12 @@
         <v>12</v>
       </c>
       <c r="AC29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF29" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3593,6 +3758,14 @@
       <c r="AC30" s="0" t="n">
         <f aca="false">COUNTIF(AC4:AC29,"P")</f>
         <v>25</v>
+      </c>
+      <c r="AE30" s="0" t="n">
+        <f aca="false">COUNTIF(AE4:AE29,"P")</f>
+        <v>23</v>
+      </c>
+      <c r="AF30" s="0" t="n">
+        <f aca="false">COUNTIF(AF4:AF29,"P")</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3622,7 +3795,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
@@ -3637,49 +3810,49 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>6</v>
@@ -3838,7 +4011,7 @@
         <v>7</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>12</v>
@@ -4183,7 +4356,7 @@
         <v>7</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>13</v>
@@ -4423,7 +4596,7 @@
         <v>7</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>13</v>
@@ -4848,7 +5021,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>8</v>
@@ -4893,7 +5066,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>7</v>
@@ -4970,7 +5143,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="19.54"/>
@@ -4984,22 +5157,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,10 +5186,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7</v>
@@ -5050,10 +5223,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7</v>
@@ -5075,10 +5248,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2</v>
@@ -5095,10 +5268,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -5120,10 +5293,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7</v>
@@ -5168,10 +5341,10 @@
         <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -5193,10 +5366,10 @@
         <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -5207,10 +5380,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -5221,10 +5394,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>4</v>
@@ -5235,10 +5408,10 @@
         <v>31</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>4</v>
@@ -5255,10 +5428,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -5278,10 +5451,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -5315,10 +5488,10 @@
         <v>43</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -5338,10 +5511,10 @@
         <v>46</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -5361,10 +5534,10 @@
         <v>49</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -5386,10 +5559,10 @@
         <v>49</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -5406,10 +5579,10 @@
         <v>53</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>9</v>
@@ -5431,10 +5604,10 @@
         <v>53</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -5445,10 +5618,10 @@
         <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>9</v>
@@ -5459,10 +5632,10 @@
         <v>53</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -5473,10 +5646,10 @@
         <v>53</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -5487,10 +5660,10 @@
         <v>53</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
@@ -5501,10 +5674,10 @@
         <v>53</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>3</v>
@@ -5521,10 +5694,10 @@
         <v>56</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>9</v>
@@ -5546,10 +5719,10 @@
         <v>56</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>6</v>
@@ -5566,10 +5739,10 @@
         <v>59</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>9</v>
@@ -5591,10 +5764,10 @@
         <v>59</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>8</v>
@@ -5605,10 +5778,10 @@
         <v>59</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>6</v>
@@ -5619,10 +5792,10 @@
         <v>59</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>4</v>
@@ -5633,10 +5806,10 @@
         <v>59</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>2</v>
@@ -5647,10 +5820,10 @@
         <v>59</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
@@ -5667,10 +5840,10 @@
         <v>62</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>10</v>
@@ -5690,10 +5863,10 @@
         <v>65</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>9</v>
@@ -5715,10 +5888,10 @@
         <v>65</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>5</v>
@@ -5735,10 +5908,10 @@
         <v>68</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -5760,10 +5933,10 @@
         <v>68</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>5</v>
@@ -5780,10 +5953,10 @@
         <v>71</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -5805,10 +5978,10 @@
         <v>71</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>8</v>
@@ -5819,10 +5992,10 @@
         <v>71</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>8</v>
@@ -5833,10 +6006,10 @@
         <v>71</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>4</v>
@@ -5853,10 +6026,10 @@
         <v>75</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>10</v>
@@ -5876,10 +6049,10 @@
         <v>78</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>10</v>
@@ -5901,10 +6074,10 @@
         <v>78</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>9</v>
@@ -5915,10 +6088,10 @@
         <v>78</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>9</v>
@@ -5929,10 +6102,10 @@
         <v>78</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>5</v>
@@ -5943,10 +6116,10 @@
         <v>78</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>4</v>
@@ -5963,10 +6136,10 @@
         <v>81</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>10</v>
@@ -5988,10 +6161,10 @@
         <v>81</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>7</v>
@@ -6008,10 +6181,10 @@
         <v>84</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>10</v>
@@ -6025,16 +6198,16 @@
         <v>25</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>8</v>
@@ -6048,16 +6221,16 @@
         <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7</v>
@@ -6088,7 +6261,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -6101,22 +6274,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,10 +6303,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -6155,10 +6328,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -6189,10 +6362,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>9</v>
@@ -6212,10 +6385,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -6263,10 +6436,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>9</v>
@@ -6286,10 +6459,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -6309,10 +6482,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -6334,10 +6507,10 @@
         <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -6348,10 +6521,10 @@
         <v>37</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -6362,10 +6535,10 @@
         <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -6382,10 +6555,10 @@
         <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -6405,10 +6578,10 @@
         <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -6428,10 +6601,10 @@
         <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -6451,10 +6624,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -6476,10 +6649,10 @@
         <v>49</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
@@ -6490,10 +6663,10 @@
         <v>49</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>9</v>
@@ -6504,10 +6677,10 @@
         <v>49</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6518,10 +6691,10 @@
         <v>49</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -6532,10 +6705,10 @@
         <v>49</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
@@ -6552,10 +6725,10 @@
         <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>5</v>
@@ -6575,10 +6748,10 @@
         <v>56</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -6598,10 +6771,10 @@
         <v>59</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>8</v>
@@ -6621,10 +6794,10 @@
         <v>62</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -6644,10 +6817,10 @@
         <v>65</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>6</v>
@@ -6669,10 +6842,10 @@
         <v>65</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>6</v>
@@ -6683,10 +6856,10 @@
         <v>65</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -6703,10 +6876,10 @@
         <v>68</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>8</v>
@@ -6726,10 +6899,10 @@
         <v>71</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1</v>
@@ -6749,10 +6922,10 @@
         <v>75</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>10</v>
@@ -6774,10 +6947,10 @@
         <v>75</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>10</v>
@@ -6788,10 +6961,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>9</v>
@@ -6802,10 +6975,10 @@
         <v>75</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>6</v>
@@ -6816,10 +6989,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
@@ -6836,10 +7009,10 @@
         <v>78</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>10</v>
@@ -6861,10 +7034,10 @@
         <v>78</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>9</v>
@@ -6875,10 +7048,10 @@
         <v>78</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>8</v>
@@ -6889,10 +7062,10 @@
         <v>78</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2</v>
@@ -6909,10 +7082,10 @@
         <v>81</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>9</v>
@@ -6932,10 +7105,10 @@
         <v>84</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>10</v>
@@ -6957,10 +7130,10 @@
         <v>84</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>9</v>
@@ -6971,10 +7144,10 @@
         <v>84</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>7</v>
@@ -6985,16 +7158,16 @@
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>9</v>
@@ -7013,13 +7186,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>6</v>
@@ -7030,16 +7203,16 @@
         <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7</v>
@@ -7070,7 +7243,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -7081,22 +7254,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,10 +7277,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -7129,10 +7302,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>8</v>
@@ -7143,10 +7316,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -7157,10 +7330,10 @@
         <v>40</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -7184,11 +7357,11 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.6"/>
@@ -7210,7 +7383,7 @@
         <v>45775</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="n">
         <v>45835</v>
@@ -7222,7 +7395,7 @@
         <v>45817</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J1" s="2" t="n">
         <v>45887</v>
@@ -7762,7 +7935,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
@@ -7787,7 +7960,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" s="0" t="n">
         <f aca="false">SUM(C27:D27)</f>
@@ -7826,7 +7999,7 @@
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.6"/>
@@ -7843,19 +8016,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7872,7 +8045,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -7923,7 +8096,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -7946,7 +8119,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -7969,7 +8142,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>8</v>
@@ -7992,7 +8165,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -8015,7 +8188,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -8038,7 +8211,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -8075,7 +8248,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -8098,7 +8271,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -8121,7 +8294,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
@@ -8144,7 +8317,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9</v>
@@ -8181,7 +8354,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -8204,7 +8377,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -8229,7 +8402,7 @@
         <v>63</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -8249,7 +8422,7 @@
         <v>66</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -8274,7 +8447,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -8288,7 +8461,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>5</v>
@@ -8302,7 +8475,7 @@
         <v>66</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -8322,7 +8495,7 @@
         <v>69</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -8345,7 +8518,7 @@
         <v>72</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>9</v>
@@ -8368,7 +8541,7 @@
         <v>76</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>9</v>
@@ -8391,7 +8564,7 @@
         <v>79</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -8414,7 +8587,7 @@
         <v>82</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -8437,7 +8610,7 @@
         <v>85</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -8451,7 +8624,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -8465,7 +8638,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1</v>
@@ -8505,7 +8678,7 @@
       <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
@@ -8521,10 +8694,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8574,7 +8747,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -8605,7 +8778,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -8625,7 +8798,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -8645,7 +8818,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -8665,7 +8838,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -8707,7 +8880,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -8727,7 +8900,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -8747,7 +8920,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7</v>
@@ -8778,7 +8951,7 @@
         <v>60</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -8798,7 +8971,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -8818,7 +8991,7 @@
         <v>66</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -8838,7 +9011,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -8891,7 +9064,7 @@
         <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -8911,7 +9084,7 @@
         <v>85</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -8922,16 +9095,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -8942,16 +9115,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -8988,7 +9161,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.83"/>
@@ -9003,10 +9176,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9023,7 +9196,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -9043,7 +9216,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5.29</v>
@@ -9063,7 +9236,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8.04</v>
@@ -9083,7 +9256,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5.49</v>
@@ -9114,7 +9287,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3.53</v>
@@ -9134,7 +9307,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7.84</v>
@@ -9154,7 +9327,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7.45</v>
@@ -9174,7 +9347,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -9194,7 +9367,7 @@
         <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5.69</v>
@@ -9214,7 +9387,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7.84</v>
@@ -9234,7 +9407,7 @@
         <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -9254,7 +9427,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8.43</v>
@@ -9274,7 +9447,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6.86</v>
@@ -9294,7 +9467,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9.61</v>
@@ -9314,7 +9487,7 @@
         <v>63</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7.45</v>
@@ -9345,7 +9518,7 @@
         <v>66</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7.84</v>
@@ -9365,7 +9538,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8.24</v>
@@ -9385,7 +9558,7 @@
         <v>72</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>5.1</v>
@@ -9405,7 +9578,7 @@
         <v>76</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8.82</v>
@@ -9425,7 +9598,7 @@
         <v>79</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9.02</v>
@@ -9445,7 +9618,7 @@
         <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -9465,7 +9638,7 @@
         <v>85</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -9476,16 +9649,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -9496,16 +9669,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>7.65</v>
